--- a/宏观经济/eta/中国10年期国债收益率Non-Trend_月度数据.xlsx
+++ b/宏观经济/eta/中国10年期国债收益率Non-Trend_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="C3" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>0.25</v>
       </c>
       <c r="C4" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="C11" t="n">
         <v>-0.16</v>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="C13" t="n">
         <v>-0.07000000000000001</v>
@@ -614,7 +614,7 @@
         <v>0.06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0.02</v>
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C19" t="n">
         <v>0.05</v>
